--- a/The lost of light.xlsx
+++ b/The lost of light.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Evernote\Databases\Attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\lost\Westrice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="基本设定" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
   <si>
     <t>名称</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>触碰则使主角色失去10%光之能量</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -837,6 +840,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,16 +864,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,30 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,7 +1012,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1044,7 +1047,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1255,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5"/>
@@ -1357,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1544,20 +1547,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75">
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7">
       <c r="C2" s="7"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5"/>
     </row>
@@ -1579,10 +1582,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1600,8 +1603,8 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
@@ -1617,8 +1620,8 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1636,8 +1639,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
@@ -1655,8 +1658,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="2" t="s">
         <v>72</v>
       </c>
@@ -1674,8 +1677,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="11" t="s">
         <v>74</v>
       </c>
@@ -1693,7 +1696,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="33">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="5" t="s">
         <v>78</v>
       </c>
@@ -1731,7 +1734,7 @@
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="5"/>
@@ -1747,7 +1750,7 @@
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
         <v>64</v>
@@ -1764,7 +1767,7 @@
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
         <v>88</v>
@@ -1783,15 +1786,15 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="5"/>
     </row>
   </sheetData>
@@ -1812,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1836,71 +1839,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="34"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="5" t="s">
         <v>103</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="34"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -1926,7 +1929,7 @@
       <c r="J3" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="51" t="s">
         <v>112</v>
       </c>
       <c r="L3" s="2"/>
@@ -1934,7 +1937,7 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -1960,13 +1963,13 @@
       <c r="J4" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -1992,13 +1995,13 @@
       <c r="J5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="44"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="28">
         <v>4</v>
       </c>
@@ -2024,13 +2027,13 @@
       <c r="J6" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
@@ -2042,23 +2045,23 @@
       <c r="F7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="49"/>
       <c r="I7" s="15" t="s">
         <v>111</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="45"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="28">
         <v>5</v>
       </c>
@@ -2072,10 +2075,10 @@
       <c r="F8" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="14" t="s">
         <v>110</v>
       </c>
@@ -2090,7 +2093,7 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="32.450000000000003" customHeight="1">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8">
         <v>6</v>
       </c>
@@ -2104,10 +2107,10 @@
       <c r="F9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="41"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="15" t="s">
         <v>111</v>
       </c>
@@ -2122,9 +2125,9 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="32.450000000000003" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="25" t="s">
         <v>126</v>
       </c>
@@ -2134,10 +2137,10 @@
       <c r="F10" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="53"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="15" t="s">
         <v>111</v>
       </c>
@@ -2152,7 +2155,7 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="34.9" customHeight="1">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="28">
         <v>7</v>
       </c>
@@ -2166,10 +2169,10 @@
       <c r="F11" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="14" t="s">
         <v>110</v>
       </c>
@@ -2184,7 +2187,7 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="58.15" customHeight="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="8">
         <v>8</v>
       </c>
@@ -2198,10 +2201,10 @@
       <c r="F12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="41"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="14" t="s">
         <v>110</v>
       </c>
@@ -2216,7 +2219,7 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="58.15" customHeight="1">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="28">
         <v>8</v>
       </c>
@@ -2230,10 +2233,10 @@
       <c r="F13" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="14" t="s">
         <v>110</v>
       </c>
@@ -2248,7 +2251,7 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="32.450000000000003" customHeight="1">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="8">
         <v>9</v>
       </c>
@@ -2262,10 +2265,10 @@
       <c r="F14" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="41"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="14" t="s">
         <v>110</v>
       </c>
@@ -2280,12 +2283,12 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="65.45" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="46">
+      <c r="A15" s="35"/>
+      <c r="B15" s="40">
         <v>10</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="50" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="44" t="s">
         <v>138</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2294,10 +2297,10 @@
       <c r="F15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="41"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="15" t="s">
         <v>111</v>
       </c>
@@ -2312,20 +2315,20 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" ht="65.45" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="51"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="41"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="15" t="s">
         <v>111</v>
       </c>
@@ -2340,7 +2343,7 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" ht="48" customHeight="1">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="28">
         <v>11</v>
       </c>
@@ -2374,7 +2377,7 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" ht="38.450000000000003" customHeight="1">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="8">
         <v>12</v>
       </c>
@@ -2408,14 +2411,14 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" ht="38.450000000000003" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="46">
+      <c r="A19" s="35"/>
+      <c r="B19" s="40">
         <v>13</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="44" t="s">
         <v>149</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2424,10 +2427,10 @@
       <c r="F19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="41"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="15" t="s">
         <v>111</v>
       </c>
@@ -2442,20 +2445,20 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" ht="38.450000000000003" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="51"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="41"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="15" t="s">
         <v>111</v>
       </c>
@@ -2470,7 +2473,7 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" ht="38.450000000000003" customHeight="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="28">
         <v>14</v>
       </c>
@@ -2486,10 +2489,10 @@
       <c r="F21" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="40"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="14" t="s">
         <v>110</v>
       </c>
@@ -2504,7 +2507,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="38.450000000000003" customHeight="1">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="8">
         <v>15</v>
       </c>
@@ -2522,7 +2525,7 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="38.450000000000003" customHeight="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8">
         <v>16</v>
       </c>
@@ -2540,7 +2543,7 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="16.149999999999999" customHeight="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="8">
         <v>17</v>
       </c>
@@ -2562,7 +2565,7 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="35" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="8">
@@ -2576,10 +2579,10 @@
       <c r="F25" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="41"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="15" t="s">
         <v>111</v>
       </c>
@@ -2594,7 +2597,7 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="34"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="8">
         <v>19</v>
       </c>
@@ -2614,7 +2617,7 @@
       <c r="N26" s="13"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="34"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="8">
         <v>20</v>
       </c>
@@ -2634,7 +2637,7 @@
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="8">
         <v>21</v>
       </c>
@@ -2646,10 +2649,10 @@
       <c r="F28" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="41"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="15" t="s">
         <v>111</v>
       </c>
@@ -2664,7 +2667,7 @@
       <c r="N28" s="13"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="34"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="8">
         <v>22</v>
       </c>
@@ -2684,7 +2687,7 @@
       <c r="N29" s="13"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="34"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="8">
         <v>23</v>
       </c>
@@ -2704,7 +2707,7 @@
       <c r="N30" s="13"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="34"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="8">
         <v>24</v>
       </c>
@@ -2724,7 +2727,7 @@
       <c r="N31" s="13"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="34"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="8">
         <v>25</v>
       </c>
@@ -2744,7 +2747,7 @@
       <c r="N32" s="13"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="34"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="8">
         <v>26</v>
       </c>
@@ -2764,7 +2767,7 @@
       <c r="N33" s="13"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="34"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="8">
         <v>27</v>
       </c>
@@ -2784,7 +2787,7 @@
       <c r="N34" s="13"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="34"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="8">
         <v>28</v>
       </c>
@@ -2804,7 +2807,7 @@
       <c r="N35" s="13"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="34"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="8">
         <v>29</v>
       </c>
@@ -2824,7 +2827,7 @@
       <c r="N36" s="13"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="34"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="8">
         <v>30</v>
       </c>
@@ -2844,7 +2847,7 @@
       <c r="N37" s="13"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="34"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="8">
         <v>31</v>
       </c>
@@ -2865,6 +2868,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G28:H28"/>
@@ -2881,25 +2903,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K3:K7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
